--- a/data/raw/PEI1986.xlsx
+++ b/data/raw/PEI1986.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SuretteTJ\Desktop\github\weight-at-size\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADBDD56-48F8-459F-8F65-E0AD11661A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D5C90B-14B8-4437-B40D-A1B645720E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27975" yWindow="495" windowWidth="27000" windowHeight="14145" xr2:uid="{D2B47AAF-C9A6-419B-B789-0E675282971A}"/>
+    <workbookView xWindow="-28020" yWindow="480" windowWidth="27000" windowHeight="14145" xr2:uid="{D2B47AAF-C9A6-419B-B789-0E675282971A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6511C7-AF57-4682-8489-494D9027C25C}">
   <dimension ref="A1:R303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="H81" sqref="H81"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:P303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -3645,7 +3645,7 @@
         <v>82</v>
       </c>
       <c r="H55" s="1">
-        <v>344</v>
+        <v>244</v>
       </c>
       <c r="I55" s="1">
         <v>36</v>
@@ -4458,7 +4458,7 @@
         <v>542</v>
       </c>
       <c r="I70" s="1">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="J70" s="1">
         <v>29</v>
@@ -6456,7 +6456,7 @@
         <v>130</v>
       </c>
       <c r="I112" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J112" s="1">
         <v>10</v>
@@ -13481,10 +13481,10 @@
         <v>128</v>
       </c>
       <c r="H266" s="1">
-        <v>722</v>
+        <v>744</v>
       </c>
       <c r="I266" s="1">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="J266" s="1">
         <v>32</v>
@@ -13666,7 +13666,7 @@
         <v>18</v>
       </c>
       <c r="G270" s="1">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="H270" s="1">
         <v>872</v>
@@ -13857,7 +13857,7 @@
         <v>64</v>
       </c>
       <c r="J274" s="1">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K274" s="1" t="s">
         <v>22</v>
